--- a/Project Outputs for Buck001/BOM/Bill of Materials-Buck001.xlsx
+++ b/Project Outputs for Buck001/BOM/Bill of Materials-Buck001.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vylt-my.sharepoint.com/personal/satyam_vylt_in/Documents/Altium_Designs/PowerModules/Buck001/Project Outputs for Buck001/BOM/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B327774-1E19-48D6-B527-71DEF6D38A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4AD714AB-924C-4E66-BAE6-D88F56F8C92D}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="21075" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-Buck001" sheetId="1" r:id="rId1"/>
@@ -18,28 +12,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-Buck001'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Comment</t>
   </si>
@@ -65,9 +43,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>MLCC_1206</t>
-  </si>
-  <si>
     <t>MLCC 1206 (3216 Metric)</t>
   </si>
   <si>
@@ -98,9 +73,6 @@
     <t>47uF</t>
   </si>
   <si>
-    <t>ERP_102-1</t>
-  </si>
-  <si>
     <t>Chip Capacitor, 2-Leads, Body 1.60x0.80mm, IPC Medium Density</t>
   </si>
   <si>
@@ -119,25 +91,19 @@
     <t>0.015uF</t>
   </si>
   <si>
-    <t>CDBB_5XX_HF, SMBJ58A, TPS54360DDAR</t>
-  </si>
-  <si>
-    <t>SMB(DO-214AA) DIODE HF 5A, TVS DIODE DO-214AA, SMB, Buck, Split Rail Switching Regulator IC Positive Adjustable 0.8V 1 Output 3.5A 8-PowerSOIC (0.154", 3.90mm Width)</t>
-  </si>
-  <si>
-    <t>D1, TVS1, U1</t>
-  </si>
-  <si>
-    <t>SMB(DO214AA), SMBJ58A, TPS54360DDAR</t>
-  </si>
-  <si>
-    <t>Comchip, [NoValue], Texas Instruments</t>
-  </si>
-  <si>
-    <t>CDBB5100-HF, SMBJ64A, TPS54360DDAR</t>
-  </si>
-  <si>
-    <t/>
+    <t>SMB(DO-214AA) DIODE HF 5A</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>SMB(DO214AA)</t>
+  </si>
+  <si>
+    <t>Comchip</t>
+  </si>
+  <si>
+    <t>CDBB5100-HF</t>
   </si>
   <si>
     <t>SRP6060FA</t>
@@ -158,9 +124,6 @@
     <t>22uH</t>
   </si>
   <si>
-    <t>ERP_101-1</t>
-  </si>
-  <si>
     <t>RES_0603</t>
   </si>
   <si>
@@ -210,17 +173,80 @@
   </si>
   <si>
     <t>10k</t>
+  </si>
+  <si>
+    <t>SMBJ58A</t>
+  </si>
+  <si>
+    <t>TVS DIODE DO-214AA, SMB</t>
+  </si>
+  <si>
+    <t>TVS1</t>
+  </si>
+  <si>
+    <t>SMBJ64A</t>
+  </si>
+  <si>
+    <t>TPS54360DDAR</t>
+  </si>
+  <si>
+    <t>Buck, Split Rail Switching Regulator IC Positive Adjustable 0.8V 1 Output 3.5A 8-PowerSOIC (0.154", 3.90mm Width)</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>Texas Instruments</t>
+  </si>
+  <si>
+    <t>1206B104K250CT</t>
+  </si>
+  <si>
+    <t>GRM31CC72A475KE11L</t>
+  </si>
+  <si>
+    <t>C3216X5R1E476M160AC</t>
+  </si>
+  <si>
+    <t>VJ0603A150JXXCW1BC</t>
+  </si>
+  <si>
+    <t>VJ0603Y153JXXPW1BC</t>
+  </si>
+  <si>
+    <t>RE0603DRE07470KL</t>
+  </si>
+  <si>
+    <t>ERA3AEB114V</t>
+  </si>
+  <si>
+    <t>CR0603-FX-3902ELF</t>
+  </si>
+  <si>
+    <t>CRGCQ0603F120K</t>
+  </si>
+  <si>
+    <t>ERA3AEB243V</t>
+  </si>
+  <si>
+    <t>RC0603FR-0730KL</t>
+  </si>
+  <si>
+    <t>ERA-3AEB242V</t>
+  </si>
+  <si>
+    <t>1622829-2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -282,9 +308,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -300,44 +323,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -365,31 +388,14 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -417,23 +423,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,170 +434,176 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="phClr"/>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E08A97-299A-4BC7-BC68-34235008E27C}">
-  <dimension ref="A1:H16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -644,16 +639,16 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="E2" s="1">
         <v>1</v>
@@ -661,73 +656,73 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
         <v>3</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -735,21 +730,21 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
@@ -757,73 +752,71 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="1">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E9" s="1">
         <v>1</v>
@@ -831,21 +824,21 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E10" s="1">
         <v>1</v>
@@ -853,21 +846,21 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D11" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -875,21 +868,21 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -897,21 +890,21 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -919,21 +912,21 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -941,21 +934,21 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -963,21 +956,21 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -985,11 +978,57 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="B18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>